--- a/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
+++ b/InputData/indst/CtIEPpUESoS/Cost to Impl Eff Policy per Unit E Saved or Shifted.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\indst\CtIEPpUESoS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\indst\CtIEPpUESoS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E9C2A-F4CA-4670-8026-422A565CD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="780" windowWidth="15900" windowHeight="22005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="early retirement" sheetId="4" r:id="rId2"/>
     <sheet name="cogen and WHR + eqpt stds" sheetId="6" r:id="rId3"/>
-    <sheet name="med and high temp fuel shifting" sheetId="5" r:id="rId4"/>
-    <sheet name="low temp fuel type shifting" sheetId="8" r:id="rId5"/>
-    <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId6"/>
+    <sheet name="fuel type shifting" sheetId="5" r:id="rId4"/>
+    <sheet name="CtIEPpUESoS" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Gabe Mantegna</author>
   </authors>
   <commentList>
-    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="128">
   <si>
     <t>Source:</t>
   </si>
@@ -289,6 +289,9 @@
     <t>way of doing things that are already done, rather than doing or buying something new.</t>
   </si>
   <si>
+    <t>We do not estimate the direct costs of implementing any of the R&amp;D policies in this model.</t>
+  </si>
+  <si>
     <t>Currency Year</t>
   </si>
   <si>
@@ -373,6 +376,9 @@
     <t>https://ww2.arb.ca.gov/sites/default/files/2020-09/e3_cn_draft_report_supp_data_aug2020.xlsx</t>
   </si>
   <si>
+    <t>fuel type shifting</t>
+  </si>
+  <si>
     <t>Fuel Type Shifting</t>
   </si>
   <si>
@@ -458,74 +464,13 @@
   </si>
   <si>
     <t>We assume the majority of energy and costs will be from boiler conversion instead of process heaters.</t>
-  </si>
-  <si>
-    <t>med and high temp fuel type shifting</t>
-  </si>
-  <si>
-    <t>low temp fuel type shifting</t>
-  </si>
-  <si>
-    <t>Emerson Industrial heat pump case studies:</t>
-  </si>
-  <si>
-    <t>Case Study 1</t>
-  </si>
-  <si>
-    <t>Annual heat delivered (MMbtu)</t>
-  </si>
-  <si>
-    <t>Capital Cost (USD)</t>
-  </si>
-  <si>
-    <t>Case Study 2</t>
-  </si>
-  <si>
-    <t>Case Study 3</t>
-  </si>
-  <si>
-    <t>$/annual BTU</t>
-  </si>
-  <si>
-    <t>Simple average</t>
-  </si>
-  <si>
-    <t>We do not model costs of R&amp;D per unit of energy saved/shifted as a result of that R&amp;D investment.</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Industrial Heat Pumps</t>
-  </si>
-  <si>
-    <t>https://climate.emerson.com/documents/vilter-heat-pump-white-paper-en-us-5411194.pdf</t>
-  </si>
-  <si>
-    <t>This is the cost per unit heat delivered via heat pump.</t>
-  </si>
-  <si>
-    <t>We want the cost per unit energy saved or shifted.</t>
-  </si>
-  <si>
-    <t>Therefore, we need to take into account the difference in efficiency of heat use.</t>
-  </si>
-  <si>
-    <t>From variable indst/PIFURfE</t>
-  </si>
-  <si>
-    <t>Percent reduction in fuel use from switching from fossil fuels to heat pump is:</t>
-  </si>
-  <si>
-    <t>Therefore, the capital cost per unit energy saved (not per unit energy delivered) is:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000"/>
@@ -534,9 +479,8 @@
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,14 +564,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,18 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +673,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -822,30 +748,19 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell" xfId="6"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4"/>
+    <cellStyle name="Footnotes: top row" xfId="8"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="7"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Table title" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -913,6 +828,79 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Electricity Decarbonization"/>
+      <sheetName val="Industry Elec. - Boilers"/>
+      <sheetName val="Industry Elec. - Process Heat"/>
+      <sheetName val="Industry CCS - Process Heat"/>
+      <sheetName val="Industry Hydrogen &amp; SNG"/>
+      <sheetName val="MDV &amp; HDV Decarbonization"/>
+      <sheetName val="DAC &amp; BECCS"/>
+      <sheetName val="Fuel Costs - PATHWAYS"/>
+      <sheetName val="Emission Factors - PATHWAYS"/>
+      <sheetName val="Constants"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="19">
+          <cell r="E19">
+            <v>5.6539999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="7">
+          <cell r="E7">
+            <v>1.7765038912431299</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>50.07</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="5">
+          <cell r="D5">
+            <v>1055.06</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>3600000</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>229.59399999999999</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>251.107</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,23 +979,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1043,23 +1014,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1235,10 +1189,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1313,206 +1269,179 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="25">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A54" s="25" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B34" r:id="rId4" xr:uid="{6376C4F0-B677-4CE5-9217-A9D26BE45B75}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1662,14 +1591,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1896,11 +1825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,43 +1843,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="31">
         <v>25</v>
@@ -1958,10 +1887,10 @@
     </row>
     <row r="9" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="32">
         <v>0.05</v>
@@ -1969,64 +1898,67 @@
     </row>
     <row r="10" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="33">
+        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C11" s="39">
+        <f>'[1]Emission Factors - PATHWAYS'!$E$7/10^9*[1]Constants!$D$6</f>
         <v>6.3954140084752677E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="39">
+        <f>'[1]Emission Factors - PATHWAYS'!$E$19*([1]Constants!$D$5/1000)</f>
         <v>52.826854199999993</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="34">
         <v>53860</v>
@@ -2037,10 +1969,10 @@
     </row>
     <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="32">
         <v>1</v>
@@ -2051,10 +1983,10 @@
     </row>
     <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="36">
         <v>3.3475000000000001</v>
@@ -2065,10 +1997,10 @@
     </row>
     <row r="19" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="37">
         <v>5280</v>
@@ -2079,10 +2011,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="37">
         <f>C18*C19</f>
@@ -2100,7 +2032,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B23" s="8"/>
     </row>
@@ -2112,7 +2044,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2120,7 +2052,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -2128,22 +2060,22 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="31">
         <v>25</v>
@@ -2152,10 +2084,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="32">
         <v>0.05</v>
@@ -2164,23 +2096,23 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C33" s="33">
-        <f>C10</f>
+        <f>'[1]Fuel Costs - PATHWAYS'!$E$19*([1]Constants!$C$33/[1]Constants!$C$27)*[1]Constants!$D$5/1000</f>
         <v>6.5242598122280206</v>
       </c>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="34">
         <v>44</v>
@@ -2189,10 +2121,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>106</v>
       </c>
       <c r="C35" s="34">
         <v>34</v>
@@ -2201,10 +2133,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C36" s="34">
         <v>21</v>
@@ -2213,10 +2145,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C37" s="34">
         <v>15</v>
@@ -2225,10 +2157,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C38" s="34">
         <v>4</v>
@@ -2243,7 +2175,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2251,24 +2183,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="34">
         <v>87540</v>
@@ -2279,10 +2211,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="34">
         <f>C42*1.5</f>
@@ -2294,10 +2226,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="32">
         <f>D44</f>
@@ -2309,10 +2241,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="36">
         <v>3.3475000000000001</v>
@@ -2323,10 +2255,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="37">
         <v>5280</v>
@@ -2337,10 +2269,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="37">
         <f>C45*C46</f>
@@ -2353,7 +2285,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -2369,155 +2301,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70154B78-0E9B-4A9B-9D3C-65AF6790BABC}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" style="25" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="25">
-        <v>56603</v>
-      </c>
-      <c r="C4" s="41">
-        <v>750000</v>
-      </c>
-      <c r="D4" s="20">
-        <f>C4/(B4*10^6)</f>
-        <v>1.3250181085808173E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="25">
-        <v>25717</v>
-      </c>
-      <c r="C5" s="41">
-        <v>700000</v>
-      </c>
-      <c r="D5" s="20">
-        <f t="shared" ref="D5:D7" si="0">C5/(B5*10^6)</f>
-        <v>2.7219349068709415E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="25">
-        <v>60507</v>
-      </c>
-      <c r="C6" s="41">
-        <v>1250000</v>
-      </c>
-      <c r="D6" s="20">
-        <f t="shared" si="0"/>
-        <v>2.0658766754259837E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="25">
-        <f>AVERAGE(B4:B6)</f>
-        <v>47609</v>
-      </c>
-      <c r="C7" s="25">
-        <f>AVERAGE(C4:C6)</f>
-        <v>900000</v>
-      </c>
-      <c r="D7" s="46">
-        <f t="shared" si="0"/>
-        <v>1.8903988741624482E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <f>D7*(1-A15)</f>
-        <v>6.1627003297695804E-6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2527,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="27">
         <v>2018</v>
@@ -2634,7 +2426,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="20">
-        <f>'early retirement'!A20*About!$A$57</f>
+        <f>'early retirement'!A20*About!$A$52</f>
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="C2" s="20">
@@ -2646,7 +2438,7 @@
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="E2" s="20">
-        <f t="shared" ref="E2:AH8" si="0">$B2</f>
+        <f t="shared" ref="E2:AH7" si="0">$B2</f>
         <v>1.4243732995275992E-4</v>
       </c>
       <c r="F2" s="20">
@@ -2774,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="28">
-        <f t="shared" ref="C3:R8" si="1">$B3</f>
+        <f t="shared" ref="C3:R7" si="1">$B3</f>
         <v>0</v>
       </c>
       <c r="D3" s="28">
@@ -2907,7 +2699,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="20">
-        <f>'cogen and WHR + eqpt stds'!B29*About!$A$58</f>
+        <f>'cogen and WHR + eqpt stds'!B29*About!$A$53</f>
         <v>2.4092251461988303E-5</v>
       </c>
       <c r="C4" s="20">
@@ -3044,7 +2836,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="20">
-        <f>'cogen and WHR + eqpt stds'!B30*About!$A$58</f>
+        <f>'cogen and WHR + eqpt stds'!B30*About!$A$53</f>
         <v>5.7135774218154072E-6</v>
       </c>
       <c r="C5" s="20">
@@ -3178,10 +2970,10 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B6" s="20">
-        <f>AVERAGE('med and high temp fuel shifting'!A24,'med and high temp fuel shifting'!A50)*About!$A$58</f>
+        <f>AVERAGE('fuel type shifting'!A24,'fuel type shifting'!A50)*About!$A$53</f>
         <v>4.8732001210763347E-6</v>
       </c>
       <c r="C6" s="20">
@@ -3313,275 +3105,138 @@
         <v>4.8732001210763347E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="44">
-        <f>'low temp fuel type shifting'!A18</f>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="C7" s="20">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28">
         <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28">
         <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="J7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="L7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="M7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" si="1"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="W7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="X7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Y7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="Z7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AA7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AB7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AC7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AD7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AE7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AF7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AG7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-      <c r="AH7" s="20">
-        <f t="shared" si="0"/>
-        <v>6.1627003297695804E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="28">
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
